--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_jogos_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_jogos_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_jogos_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_jogos_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -483,10 +501,10 @@
         <v>629</v>
       </c>
       <c r="E2" s="1">
-        <v>0.7872659176029962</v>
+        <v>78.72659176029963</v>
       </c>
       <c r="F2" s="1">
-        <v>0.5984776403425309</v>
+        <v>59.84776403425309</v>
       </c>
       <c r="G2" s="2">
         <v>18458513.50599784</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>537544.5528256212</v>
       </c>
+      <c r="L2">
+        <v>91.17116223450478</v>
+      </c>
+      <c r="M2">
+        <v>202460</v>
+      </c>
+      <c r="N2">
+        <v>321.8759936406995</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -518,10 +545,10 @@
         <v>201</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2127340823970038</v>
+        <v>21.27340823970038</v>
       </c>
       <c r="F3" s="1">
-        <v>0.7077464788732394</v>
+        <v>70.77464788732394</v>
       </c>
       <c r="G3" s="2">
         <v>5604766.32132519</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L3">
+        <v>91.74154684374953</v>
+      </c>
+      <c r="M3">
+        <v>61093</v>
+      </c>
+      <c r="N3">
+        <v>303.9452736318408</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -553,10 +589,10 @@
         <v>1068</v>
       </c>
       <c r="E4" s="1">
-        <v>0.7813351498637602</v>
+        <v>78.13351498637601</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9311246730601569</v>
+        <v>93.11246730601569</v>
       </c>
       <c r="G4" s="2">
         <v>13714158.75851823</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>90.6205976008235</v>
+      </c>
+      <c r="M4">
+        <v>151336</v>
+      </c>
+      <c r="N4">
+        <v>141.7003745318352</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -588,10 +633,10 @@
         <v>315</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2186648501362398</v>
+        <v>21.86648501362398</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9813084112149533</v>
+        <v>98.13084112149532</v>
       </c>
       <c r="G5" s="2">
         <v>4647973.179040875</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>475290.9541363961</v>
       </c>
+      <c r="L5">
+        <v>88.85439072913162</v>
+      </c>
+      <c r="M5">
+        <v>52310</v>
+      </c>
+      <c r="N5">
+        <v>166.0634920634921</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -623,10 +677,10 @@
         <v>135</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9108187134502924</v>
+        <v>91.08187134502924</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2166934189406099</v>
+        <v>21.669341894061</v>
       </c>
       <c r="G6" s="2">
         <v>35385.59168921323</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>3475.049171548047</v>
       </c>
+      <c r="L6">
+        <v>18.28712748796549</v>
+      </c>
+      <c r="M6">
+        <v>1935</v>
+      </c>
+      <c r="N6">
+        <v>14.33333333333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -658,10 +721,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0891812865497076</v>
+        <v>8.91812865497076</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2786885245901639</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="G7" s="2">
         <v>7801.366065571573</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>5087.076865717208</v>
+      </c>
+      <c r="L7">
+        <v>28.57643247462115</v>
+      </c>
+      <c r="M7">
+        <v>273</v>
+      </c>
+      <c r="N7">
+        <v>16.05882352941176</v>
       </c>
     </row>
   </sheetData>
